--- a/output/ann_predictions.xlsx
+++ b/output/ann_predictions.xlsx
@@ -442,1037 +442,1037 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19484.560546875</v>
+        <v>19787.076171875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18882.712890625</v>
+        <v>19392.751953125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20181.78125</v>
+        <v>20690.876953125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19034.3046875</v>
+        <v>19863.01171875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19088.92578125</v>
+        <v>19725.677734375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17929.341796875</v>
+        <v>18546.912109375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19872.603515625</v>
+        <v>20746.154296875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19945.21875</v>
+        <v>20767.83984375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21720.845703125</v>
+        <v>22335.78125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18086.345703125</v>
+        <v>18739.341796875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18770.283203125</v>
+        <v>18955.69140625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17071.6015625</v>
+        <v>17554.671875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19401.705078125</v>
+        <v>19901.40625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16380.6298828125</v>
+        <v>16451.91796875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16202.5263671875</v>
+        <v>16343.384765625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15373.0224609375</v>
+        <v>15496.3212890625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14046.11328125</v>
+        <v>14168.95703125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16205.6123046875</v>
+        <v>16285.4599609375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13406.8154296875</v>
+        <v>13662.318359375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13933.5849609375</v>
+        <v>14207.2431640625</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13809.8994140625</v>
+        <v>14042.734375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14703.0029296875</v>
+        <v>14877.08203125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14473.3173828125</v>
+        <v>14695.9208984375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13544.517578125</v>
+        <v>13803.37890625</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14438.8837890625</v>
+        <v>14659.6357421875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15495.5634765625</v>
+        <v>15620.6474609375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>16562.6796875</v>
+        <v>16665.62890625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14032.8232421875</v>
+        <v>14122.5107421875</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17304.8046875</v>
+        <v>17584.88671875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15473.220703125</v>
+        <v>15666.53125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16320.5498046875</v>
+        <v>16448.990234375</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14549.01171875</v>
+        <v>14635.224609375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15772.091796875</v>
+        <v>15899.0625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>15541.9345703125</v>
+        <v>15803.6298828125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14346.5361328125</v>
+        <v>14448.779296875</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15813.859375</v>
+        <v>16121.3408203125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15790.6953125</v>
+        <v>16103.9755859375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16086.4873046875</v>
+        <v>16454.423828125</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18019.140625</v>
+        <v>18421.78515625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17001.9453125</v>
+        <v>17359.154296875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15520.953125</v>
+        <v>15656.044921875</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16084.3583984375</v>
+        <v>16229.927734375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14886.1787109375</v>
+        <v>15018.3173828125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13916.14453125</v>
+        <v>14086.3740234375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13259.7421875</v>
+        <v>13451.779296875</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12945.01953125</v>
+        <v>13302.0458984375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>13940.7431640625</v>
+        <v>14215.693359375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>13873.58203125</v>
+        <v>14155.9658203125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>13628.0126953125</v>
+        <v>13863.978515625</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>14276.357421875</v>
+        <v>14480.4130859375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13350.580078125</v>
+        <v>13523.6689453125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12249.7197265625</v>
+        <v>12542.609375</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11857.6162109375</v>
+        <v>12194.18359375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>14859.8349609375</v>
+        <v>14966.0888671875</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14316.2041015625</v>
+        <v>14462.71484375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14543.4267578125</v>
+        <v>14756.462890625</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14024.0888671875</v>
+        <v>14291.8740234375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15508.6767578125</v>
+        <v>15710.802734375</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16754.2421875</v>
+        <v>16897.6328125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15288.4013671875</v>
+        <v>15417.533203125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14953.701171875</v>
+        <v>15077.16015625</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>14795.779296875</v>
+        <v>14886.0771484375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15110.8505859375</v>
+        <v>15254.0830078125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>17487.427734375</v>
+        <v>17795.455078125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>15711.548828125</v>
+        <v>15930.3369140625</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>17295.66796875</v>
+        <v>17796.185546875</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>16411.205078125</v>
+        <v>16813.2109375</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>17836.427734375</v>
+        <v>18307.62109375</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>14341.5029296875</v>
+        <v>14420.9609375</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>15667.2939453125</v>
+        <v>15940.8974609375</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14305.333984375</v>
+        <v>14381.1162109375</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13848.4912109375</v>
+        <v>14020.6376953125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13337.2236328125</v>
+        <v>13365.8828125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12476.0771484375</v>
+        <v>12621.2666015625</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>12415.876953125</v>
+        <v>12608.8603515625</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>12401.783203125</v>
+        <v>12716.509765625</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>11283.2451171875</v>
+        <v>11457.255859375</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11839.91015625</v>
+        <v>12081.9296875</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9029.0693359375</v>
+        <v>9193.1513671875</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9345.4599609375</v>
+        <v>9422.8447265625</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9896.923828125</v>
+        <v>9995.109375</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9796.18359375</v>
+        <v>9880.7626953125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8853.357421875</v>
+        <v>9029.5087890625</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9180.2978515625</v>
+        <v>9282.09375</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9213.4580078125</v>
+        <v>9296.3056640625</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9311.2841796875</v>
+        <v>9277.03515625</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9304.921875</v>
+        <v>9322.423828125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8450.6396484375</v>
+        <v>8600.7177734375</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9127.15625</v>
+        <v>9106.0888671875</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8830.7939453125</v>
+        <v>8782.322265625</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8236.2607421875</v>
+        <v>8253.9541015625</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9351.564453125</v>
+        <v>9264.6943359375</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9082.869140625</v>
+        <v>9046.7548828125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>11498.4228515625</v>
+        <v>11781.6982421875</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10042.4892578125</v>
+        <v>10256.12109375</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10153.91015625</v>
+        <v>10442.109375</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10078.44921875</v>
+        <v>10320.939453125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10004.708984375</v>
+        <v>10304.236328125</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9809.556640625</v>
+        <v>10052.0419921875</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8223.5908203125</v>
+        <v>8390.115234375</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>7163.81396484375</v>
+        <v>7277.8115234375</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7194.6875</v>
+        <v>7417.9892578125</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5886.57568359375</v>
+        <v>6082.0126953125</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>7759.81982421875</v>
+        <v>7841.2177734375</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8712.830078125</v>
+        <v>8709.166015625</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>7459.603515625</v>
+        <v>7543.7421875</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>6381.30419921875</v>
+        <v>6488.015625</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6953.2822265625</v>
+        <v>7022.796875</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5903.50927734375</v>
+        <v>6015.361328125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6201.79150390625</v>
+        <v>6323.30517578125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5847.25634765625</v>
+        <v>5984.6611328125</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5625.80419921875</v>
+        <v>5724.3798828125</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5712.67431640625</v>
+        <v>5822.4052734375</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4942.62060546875</v>
+        <v>4987.0859375</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5163.18701171875</v>
+        <v>5214.55859375</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5629.802734375</v>
+        <v>5748.330078125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5683.0625</v>
+        <v>5794.93603515625</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6049.84716796875</v>
+        <v>6169.4267578125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5601.43994140625</v>
+        <v>5721.89794921875</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6056.775390625</v>
+        <v>6160.267578125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4992.25048828125</v>
+        <v>5151.1943359375</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6311.08447265625</v>
+        <v>6543.51904296875</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5446.76123046875</v>
+        <v>5718.59375</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6282.47412109375</v>
+        <v>6544.01708984375</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8558.916015625</v>
+        <v>8732.9443359375</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9580.0068359375</v>
+        <v>9816.80859375</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9019.890625</v>
+        <v>9250.5029296875</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10022.7119140625</v>
+        <v>10287.1240234375</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>7456.16162109375</v>
+        <v>7641.50634765625</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7708.5498046875</v>
+        <v>7881.20361328125</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8090.146484375</v>
+        <v>8153.6181640625</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>7781.841796875</v>
+        <v>7924.9736328125</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>7401.76708984375</v>
+        <v>7510.60205078125</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7008.66552734375</v>
+        <v>7073.78125</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7083.76708984375</v>
+        <v>7141.921875</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6712.12890625</v>
+        <v>6821.44384765625</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7539.67138671875</v>
+        <v>7624.4326171875</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6942.42578125</v>
+        <v>7035.09619140625</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5381.8828125</v>
+        <v>5457.37451171875</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6821.36962890625</v>
+        <v>6958.15478515625</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5291.6337890625</v>
+        <v>5372.40771484375</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5898.7216796875</v>
+        <v>6022.17041015625</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5115.0078125</v>
+        <v>5196.18212890625</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5460.89794921875</v>
+        <v>5545.6044921875</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5295.76953125</v>
+        <v>5363.58837890625</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5212.9912109375</v>
+        <v>5271.3232421875</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5352.166015625</v>
+        <v>5432.74072265625</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4880.9599609375</v>
+        <v>4937.21630859375</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4257.20068359375</v>
+        <v>4310.2626953125</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4518.29736328125</v>
+        <v>4579.41162109375</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4706.28759765625</v>
+        <v>4816.0986328125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>4896.7607421875</v>
+        <v>4997.85400390625</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>4992.84228515625</v>
+        <v>5105.30029296875</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5732.81884765625</v>
+        <v>5981.42138671875</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5032.2998046875</v>
+        <v>5332.76806640625</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5682.869140625</v>
+        <v>5978.208984375</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>6811.7099609375</v>
+        <v>7174.93798828125</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6310.40185546875</v>
+        <v>6689.8857421875</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4550.63720703125</v>
+        <v>4857.4208984375</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4350.66357421875</v>
+        <v>4548.787109375</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4225.794921875</v>
+        <v>4294.814453125</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3815.14697265625</v>
+        <v>3980.29052734375</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4052.59619140625</v>
+        <v>4111.9736328125</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4456.89208984375</v>
+        <v>4516.66455078125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5065.5302734375</v>
+        <v>5146.74462890625</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4067.130859375</v>
+        <v>4108.42333984375</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>4265.2724609375</v>
+        <v>4309.005859375</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>5072.74169921875</v>
+        <v>5134.53173828125</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>3827.03662109375</v>
+        <v>3831.01416015625</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>4217.68798828125</v>
+        <v>4225.37060546875</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>4171.068359375</v>
+        <v>4155.8134765625</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>3268.0009765625</v>
+        <v>3291.6484375</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3444.88525390625</v>
+        <v>3459.08642578125</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3763.35595703125</v>
+        <v>3789.01416015625</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>4026.4404296875</v>
+        <v>4024.0400390625</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3841.0849609375</v>
+        <v>3868.3720703125</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>3242.52001953125</v>
+        <v>3286.2080078125</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2977.7802734375</v>
+        <v>3079.89208984375</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3653.8017578125</v>
+        <v>3728.03076171875</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3691.7470703125</v>
+        <v>3748.50830078125</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2929.10205078125</v>
+        <v>3139.896484375</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3207.79150390625</v>
+        <v>3326.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1912.409301757812</v>
+        <v>2260.5927734375</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2315.5498046875</v>
+        <v>2643.95361328125</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2305.17431640625</v>
+        <v>2637.65771484375</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3839.03564453125</v>
+        <v>4356.38720703125</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3011.841796875</v>
+        <v>3337.65673828125</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3835.77392578125</v>
+        <v>4262.35107421875</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2477.76806640625</v>
+        <v>2781.09326171875</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1903.358520507812</v>
+        <v>2288.9609375</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3160.65673828125</v>
+        <v>3320.02587890625</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2771.06689453125</v>
+        <v>2946.54150390625</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1830.434204101562</v>
+        <v>2074.64453125</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2256.6708984375</v>
+        <v>2445.009765625</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2656.88134765625</v>
+        <v>2790.7265625</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2809.427734375</v>
+        <v>2905.75390625</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1806.157836914062</v>
+        <v>1991.281860351562</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2048.837890625</v>
+        <v>2205.4267578125</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1613.710083007812</v>
+        <v>1771.719360351562</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1655.005004882812</v>
+        <v>1796.673461914062</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1514.066040039062</v>
+        <v>1653.547973632812</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1279.622192382812</v>
+        <v>1414.801879882812</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>974.3159790039062</v>
+        <v>1135.462524414062</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1100.414672851562</v>
+        <v>1294.816040039062</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>437.4195251464844</v>
+        <v>667.1694946289062</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>664.2149047851562</v>
+        <v>968.6939086914062</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>334.1109313964844</v>
+        <v>621.3316040039062</v>
       </c>
     </row>
   </sheetData>
